--- a/src/main/resources/devices/blueowl/Referees.xlsx
+++ b/src/main/resources/devices/blueowl/Referees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\blueowl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6FD53B-9385-4DA0-8266-44E86044ECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A57F23C-C9DE-49A0-9272-6606875BD602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>pin</t>
   </si>
@@ -145,21 +145,6 @@
   </si>
   <si>
     <t>Down sound A1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Ignore A2 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A3 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A4 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A5 Inputs</t>
   </si>
   <si>
     <t>C6,250,PAUSE,125,C6,250</t>
@@ -224,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -260,6 +245,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -576,20 +567,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
@@ -600,11 +591,11 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -616,7 +607,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -629,8 +620,8 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>13</v>
+      <c r="B2" s="13">
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>27</v>
@@ -649,8 +640,8 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>13</v>
+      <c r="B3" s="13">
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>28</v>
@@ -669,8 +660,8 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>13</v>
+      <c r="B4" s="13">
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>29</v>
@@ -683,8 +674,8 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>13</v>
+      <c r="B5" s="13">
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -700,8 +691,8 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>12</v>
+      <c r="B6" s="13">
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>27</v>
@@ -713,15 +704,15 @@
         <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>12</v>
+      <c r="B7" s="13">
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -733,15 +724,15 @@
         <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>11</v>
+      <c r="B8" s="13">
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>2</v>
@@ -757,8 +748,8 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>10</v>
+      <c r="B9" s="13">
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>2</v>
@@ -774,8 +765,8 @@
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7">
-        <v>9</v>
+      <c r="B10" s="14">
+        <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>27</v>
@@ -797,8 +788,8 @@
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
-        <v>9</v>
+      <c r="B11" s="14">
+        <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -820,8 +811,8 @@
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
-        <v>9</v>
+      <c r="B12" s="14">
+        <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>29</v>
@@ -839,8 +830,8 @@
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
-        <v>9</v>
+      <c r="B13" s="14">
+        <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>30</v>
@@ -860,8 +851,8 @@
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <v>8</v>
+      <c r="B14" s="14">
+        <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>27</v>
@@ -873,18 +864,18 @@
         <v>34</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="15" spans="1:9" s="12" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
-        <v>8</v>
+      <c r="B15" s="14">
+        <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>28</v>
@@ -896,7 +887,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="7"/>
@@ -906,8 +897,8 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>7</v>
+      <c r="B16" s="14">
+        <v>8</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -929,8 +920,8 @@
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
-        <v>6</v>
+      <c r="B17" s="14">
+        <v>5</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -950,8 +941,8 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
-        <v>5</v>
+      <c r="B18" s="13">
+        <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>27</v>
@@ -970,8 +961,8 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1">
-        <v>5</v>
+      <c r="B19" s="13">
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>28</v>
@@ -990,8 +981,8 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>5</v>
+      <c r="B20" s="13">
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>29</v>
@@ -1004,8 +995,8 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
-        <v>5</v>
+      <c r="B21" s="13">
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
@@ -1021,8 +1012,8 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
-        <v>4</v>
+      <c r="B22" s="13">
+        <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>27</v>
@@ -1034,15 +1025,15 @@
         <v>34</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1">
-        <v>4</v>
+      <c r="B23" s="13">
+        <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>28</v>
@@ -1054,15 +1045,15 @@
         <v>34</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
+      <c r="B24" s="13">
+        <v>14</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>2</v>
@@ -1078,8 +1069,8 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
-        <v>2</v>
+      <c r="B25" s="13">
+        <v>16</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>2</v>
@@ -1095,8 +1086,8 @@
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1">
-        <v>14</v>
+      <c r="B26" s="13">
+        <v>17</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>31</v>
@@ -1116,8 +1107,8 @@
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1">
-        <v>15</v>
+      <c r="B27" s="13">
+        <v>18</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>31</v>
@@ -1132,50 +1123,6 @@
       <c r="G27" s="11"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="1">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="1">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="1">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/resources/devices/blueowl/Referees.xlsx
+++ b/src/main/resources/devices/blueowl/Referees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\blueowl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A57F23C-C9DE-49A0-9272-6606875BD602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5976D822-8BDB-4B41-982D-185DF1157A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
@@ -569,9 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -786,7 +784,7 @@
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" s="14">
         <v>6</v>
@@ -959,7 +957,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13">
         <v>15</v>
@@ -1028,7 +1026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
